--- a/ftpfiles/list.xlsx
+++ b/ftpfiles/list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -121,123 +121,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>花匠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华容道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开车旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同余方程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫情控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌龟棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关押罪犯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引水入城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合数问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚯蚓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒的小鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜伏者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hankson的趣味题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优贸易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靶形数独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笨小猴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴棒等式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传纸条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双栈排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串的展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵取数游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树网的核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金明的预算方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业调度方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2k进制数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>积木大赛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花匠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华容道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国王游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开车旅行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同余方程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>借教室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疫情控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌龟棋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关押罪犯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引水入城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合数问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚯蚓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愤怒的小鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜伏者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hankson的趣味题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最优贸易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靶形数独</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笨小猴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火柴棒等式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传纸条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双栈排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串的展开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵取数游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树网的核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金明的预算方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业调度方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2k进制数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,14 +263,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,7 +610,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -635,16 +640,16 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -652,16 +657,16 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -669,16 +674,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -686,16 +691,16 @@
         <v>2009</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -706,13 +711,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -746,19 +751,19 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
         <v>31</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -775,13 +780,13 @@
         <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -844,13 +849,13 @@
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
         <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
